--- a/8_CNN_test/CNN_size.xlsx
+++ b/8_CNN_test/CNN_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Case\case-STM32\200116_Angin_MCU_NN_learn\8_CNN_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594A193B-5E7B-4F9A-82AB-55935A3995B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA1849-E64F-4F5F-942C-FAA25F1D1EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="7290" windowWidth="20730" windowHeight="11310" xr2:uid="{E5BA393E-CCE4-4C37-B72A-E59304122F6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E5BA393E-CCE4-4C37-B72A-E59304122F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>全连接</t>
   </si>
@@ -67,18 +67,6 @@
   </si>
   <si>
     <t>813.74/</t>
-  </si>
-  <si>
-    <t>1620/</t>
-  </si>
-  <si>
-    <t>1470/</t>
-  </si>
-  <si>
-    <t>1420/</t>
-  </si>
-  <si>
-    <t>3470/</t>
   </si>
   <si>
     <t>64/3</t>
@@ -133,6 +121,10 @@
   </si>
   <si>
     <t>卷积层(filter/卷积核大小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5 size/Flash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3513,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB68259-F7BE-443D-98A6-C232596CE0E0}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3527,9 +3519,9 @@
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3538,18 +3530,21 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3563,8 +3558,15 @@
       <c r="F2">
         <v>173.1</v>
       </c>
+      <c r="G2">
+        <v>3407</v>
+      </c>
+      <c r="H2">
+        <f>G2/E2</f>
+        <v>15.558498493013062</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3583,11 +3585,15 @@
       <c r="F3">
         <v>179.46</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="G3">
+        <v>3198</v>
+      </c>
+      <c r="H3">
+        <f>G3/E3</f>
+        <v>9.5548252166118921</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3607,10 +3613,14 @@
         <v>185.34</v>
       </c>
       <c r="G4">
-        <v>1540</v>
+        <v>3029</v>
+      </c>
+      <c r="H4">
+        <f>G4/E4</f>
+        <v>6.6869770624986202</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3629,11 +3639,15 @@
       <c r="F5">
         <v>190.72</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
+      <c r="G5">
+        <v>2902</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H2:H10" si="0">G5/E5</f>
+        <v>5.0575113279888466</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3652,11 +3666,15 @@
       <c r="F6">
         <v>190.72</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
+      <c r="G6">
+        <v>2817</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4.0405054576227428</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3675,11 +3693,15 @@
       <c r="F7">
         <v>346.15</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
+      <c r="G7">
+        <v>6791</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>15.509523592015713</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3698,8 +3720,15 @@
       <c r="F8">
         <v>358.91</v>
       </c>
+      <c r="G8">
+        <v>7183</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7.4496992325243721</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3718,8 +3747,15 @@
       <c r="F9">
         <v>370.69</v>
       </c>
+      <c r="G9">
+        <v>7183</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.7886666666666668</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3738,16 +3774,23 @@
       <c r="F10">
         <v>381.44</v>
       </c>
+      <c r="G10">
+        <v>7500</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.6945812807881775</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>0.91</v>
@@ -3758,16 +3801,23 @@
       <c r="F11">
         <v>173.57</v>
       </c>
+      <c r="G11">
+        <v>43304</v>
+      </c>
+      <c r="H11">
+        <f>G11/E11</f>
+        <v>15.576978417266186</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>0.91</v>
@@ -3778,16 +3828,23 @@
       <c r="F12">
         <v>173.57</v>
       </c>
+      <c r="G12">
+        <v>43436</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H18" si="1">G12/E12</f>
+        <v>15.294366197183098</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
       <c r="D13">
         <v>0.91</v>
@@ -3798,16 +3855,23 @@
       <c r="F13">
         <v>173.57</v>
       </c>
+      <c r="G13">
+        <v>43569</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>14.972164948453608</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>0.9</v>
@@ -3818,16 +3882,23 @@
       <c r="F14">
         <v>173.57</v>
       </c>
+      <c r="G14">
+        <v>43701</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>14.664765100671142</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>0.93</v>
@@ -3838,16 +3909,23 @@
       <c r="F15">
         <v>174.08</v>
       </c>
+      <c r="G15">
+        <v>86579</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>15.599819819819819</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>0.92</v>
@@ -3858,16 +3936,23 @@
       <c r="F16">
         <v>174.08</v>
       </c>
+      <c r="G16">
+        <v>87096</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>14.990705679862307</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>0.93</v>
@@ -3878,16 +3963,23 @@
       <c r="F17">
         <v>174.08</v>
       </c>
+      <c r="G17">
+        <v>87614</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>14.410197368421052</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>0.92</v>
@@ -3898,28 +3990,35 @@
       <c r="F18">
         <v>174.08</v>
       </c>
+      <c r="G18">
+        <v>88131</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>13.900788643533122</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -3939,9 +4038,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
